--- a/metadata/Extraction_IDs.xlsx
+++ b/metadata/Extraction_IDs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/sjc6663_psu_edu/Documents/Capsicum/Data-Analysis/16S-Capsicum-Analysis/metadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pennstateoffice365-my.sharepoint.com/personal/evk5387_psu_edu/Documents/Ganda-Files/Shared-Trello-Projects/Capsicum/7.Data-Analysis/Capsicum/Data-Analysis/16S-Capsicum-Analysis/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="589" documentId="13_ncr:1_{FB6AE85C-8AA2-BF43-9D54-2A8B32D7490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D165C01-2CDF-ED41-8ECE-96D3A50950B4}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="13_ncr:1_{FB6AE85C-8AA2-BF43-9D54-2A8B32D7490D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D8218D0-02D7-1A4D-85A4-F75E7656A10F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17360" activeTab="10" xr2:uid="{51D79CF2-D584-9845-A0B5-E13D3EEB2A28}"/>
   </bookViews>
@@ -28,7 +28,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'asha-sort'!$A$1:$R$166</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Metadata!$A$1:$G$208</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Metadata!$A$1:$G$203</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Metadata-for-Analysis'!$A$1:$F$162</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -419,7 +419,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9068" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9050" uniqueCount="649">
   <si>
     <t>## Lab ID is sharpied on the side of the centrifuge in case I wrote down the incorrect ID</t>
   </si>
@@ -2318,9 +2318,6 @@
   </si>
   <si>
     <t>Fecal</t>
-  </si>
-  <si>
-    <t>Enviro</t>
   </si>
   <si>
     <t>Rumen</t>
@@ -2950,7 +2947,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3065,7 +3062,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3566,7 +3562,7 @@
   <dimension ref="A1:S168"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
@@ -9431,662 +9427,662 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="112" t="s">
         <v>514</v>
       </c>
-      <c r="C1" s="113" t="s">
-        <v>645</v>
-      </c>
-      <c r="D1" s="113" t="s">
+      <c r="C1" s="112" t="s">
+        <v>644</v>
+      </c>
+      <c r="D1" s="112" t="s">
         <v>608</v>
       </c>
-      <c r="E1" s="113" t="s">
+      <c r="E1" s="112" t="s">
+        <v>642</v>
+      </c>
+      <c r="F1" s="112" t="s">
         <v>643</v>
       </c>
-      <c r="F1" s="113" t="s">
-        <v>644</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="112" t="s">
         <v>438</v>
       </c>
-      <c r="B2" s="113">
+      <c r="B2" s="112">
         <v>1</v>
       </c>
-      <c r="C2" s="113">
+      <c r="C2" s="112">
         <v>1</v>
       </c>
-      <c r="D2" s="113" t="s">
+      <c r="D2" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E2" s="112">
+        <v>0</v>
+      </c>
+      <c r="F2" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="112" t="s">
+        <v>438</v>
+      </c>
+      <c r="B3" s="112">
+        <v>2</v>
+      </c>
+      <c r="C3" s="112">
+        <v>1</v>
+      </c>
+      <c r="D3" s="112" t="s">
+        <v>640</v>
+      </c>
+      <c r="E3" s="112">
+        <v>1</v>
+      </c>
+      <c r="F3" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="112" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="112">
+        <v>3</v>
+      </c>
+      <c r="C4" s="112">
+        <v>1</v>
+      </c>
+      <c r="D4" s="112" t="s">
         <v>639</v>
       </c>
-      <c r="E2" s="113">
+      <c r="E4" s="112">
+        <v>-1</v>
+      </c>
+      <c r="F4" s="112">
         <v>0</v>
       </c>
-      <c r="F2" s="113">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="112" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" s="112">
+        <v>4</v>
+      </c>
+      <c r="C5" s="112">
+        <v>1</v>
+      </c>
+      <c r="D5" s="112" t="s">
+        <v>641</v>
+      </c>
+      <c r="E5" s="112">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="113" t="s">
-        <v>438</v>
-      </c>
-      <c r="B3" s="113">
+      <c r="F5" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="112" t="s">
+        <v>458</v>
+      </c>
+      <c r="B6" s="112">
+        <v>1</v>
+      </c>
+      <c r="C6" s="112">
         <v>2</v>
       </c>
-      <c r="C3" s="113">
+      <c r="D6" s="112" t="s">
+        <v>640</v>
+      </c>
+      <c r="E6" s="112">
+        <v>0</v>
+      </c>
+      <c r="F6" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="112" t="s">
+        <v>458</v>
+      </c>
+      <c r="B7" s="112">
+        <v>2</v>
+      </c>
+      <c r="C7" s="112">
+        <v>2</v>
+      </c>
+      <c r="D7" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E7" s="112">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="112" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" s="112">
+        <v>3</v>
+      </c>
+      <c r="C8" s="112">
+        <v>2</v>
+      </c>
+      <c r="D8" s="112" t="s">
+        <v>641</v>
+      </c>
+      <c r="E8" s="112">
+        <v>0</v>
+      </c>
+      <c r="F8" s="112">
         <v>1</v>
       </c>
-      <c r="D3" s="113" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="112" t="s">
+        <v>458</v>
+      </c>
+      <c r="B9" s="112">
+        <v>4</v>
+      </c>
+      <c r="C9" s="112">
+        <v>2</v>
+      </c>
+      <c r="D9" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E9" s="112">
+        <v>0</v>
+      </c>
+      <c r="F9" s="112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="112" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="112">
+        <v>1</v>
+      </c>
+      <c r="C10" s="112">
+        <v>3</v>
+      </c>
+      <c r="D10" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E10" s="112">
+        <v>0</v>
+      </c>
+      <c r="F10" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="112" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" s="112">
+        <v>2</v>
+      </c>
+      <c r="C11" s="112">
+        <v>3</v>
+      </c>
+      <c r="D11" s="112" t="s">
         <v>641</v>
       </c>
-      <c r="E3" s="113">
+      <c r="E11" s="112">
+        <v>0</v>
+      </c>
+      <c r="F11" s="112">
         <v>1</v>
       </c>
-      <c r="F3" s="113">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="112" t="s">
+        <v>462</v>
+      </c>
+      <c r="B12" s="112">
+        <v>3</v>
+      </c>
+      <c r="C12" s="112">
+        <v>3</v>
+      </c>
+      <c r="D12" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E12" s="112">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="113" t="s">
-        <v>438</v>
-      </c>
-      <c r="B4" s="113">
+      <c r="F12" s="112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="112" t="s">
+        <v>462</v>
+      </c>
+      <c r="B13" s="112">
+        <v>4</v>
+      </c>
+      <c r="C13" s="112">
         <v>3</v>
       </c>
-      <c r="C4" s="113">
+      <c r="D13" s="112" t="s">
+        <v>640</v>
+      </c>
+      <c r="E13" s="112">
         <v>1</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="F13" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="112" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" s="112">
+        <v>1</v>
+      </c>
+      <c r="C14" s="112">
+        <v>4</v>
+      </c>
+      <c r="D14" s="112" t="s">
+        <v>641</v>
+      </c>
+      <c r="E14" s="112">
+        <v>0</v>
+      </c>
+      <c r="F14" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="112" t="s">
+        <v>463</v>
+      </c>
+      <c r="B15" s="112">
+        <v>2</v>
+      </c>
+      <c r="C15" s="112">
+        <v>4</v>
+      </c>
+      <c r="D15" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E15" s="112">
+        <v>0</v>
+      </c>
+      <c r="F15" s="112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="112" t="s">
+        <v>463</v>
+      </c>
+      <c r="B16" s="112">
+        <v>3</v>
+      </c>
+      <c r="C16" s="112">
+        <v>4</v>
+      </c>
+      <c r="D16" s="112" t="s">
         <v>640</v>
       </c>
-      <c r="E4" s="113">
+      <c r="E16" s="112">
+        <v>1</v>
+      </c>
+      <c r="F16" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="112" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" s="112">
+        <v>4</v>
+      </c>
+      <c r="C17" s="112">
+        <v>4</v>
+      </c>
+      <c r="D17" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E17" s="112">
         <v>-1</v>
       </c>
-      <c r="F4" s="113">
+      <c r="F17" s="112">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="113" t="s">
-        <v>438</v>
-      </c>
-      <c r="B5" s="113">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="112" t="s">
+        <v>465</v>
+      </c>
+      <c r="B18" s="112">
+        <v>1</v>
+      </c>
+      <c r="C18" s="112">
+        <v>3</v>
+      </c>
+      <c r="D18" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E18" s="112">
+        <v>0</v>
+      </c>
+      <c r="F18" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="112" t="s">
+        <v>465</v>
+      </c>
+      <c r="B19" s="112">
+        <v>2</v>
+      </c>
+      <c r="C19" s="112">
+        <v>3</v>
+      </c>
+      <c r="D19" s="112" t="s">
+        <v>641</v>
+      </c>
+      <c r="E19" s="112">
+        <v>0</v>
+      </c>
+      <c r="F19" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="112" t="s">
+        <v>465</v>
+      </c>
+      <c r="B20" s="112">
+        <v>3</v>
+      </c>
+      <c r="C20" s="112">
+        <v>3</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E20" s="112">
+        <v>0</v>
+      </c>
+      <c r="F20" s="112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="112" t="s">
+        <v>465</v>
+      </c>
+      <c r="B21" s="112">
         <v>4</v>
       </c>
-      <c r="C5" s="113">
+      <c r="C21" s="112">
+        <v>3</v>
+      </c>
+      <c r="D21" s="112" t="s">
+        <v>640</v>
+      </c>
+      <c r="E21" s="112">
         <v>1</v>
       </c>
-      <c r="D5" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E5" s="113">
+      <c r="F21" s="112">
         <v>0</v>
       </c>
-      <c r="F5" s="113">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="112" t="s">
+        <v>468</v>
+      </c>
+      <c r="B22" s="112">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="113" t="s">
-        <v>458</v>
-      </c>
-      <c r="B6" s="113">
+      <c r="C22" s="112">
         <v>1</v>
       </c>
-      <c r="C6" s="113">
+      <c r="D22" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E22" s="112">
+        <v>0</v>
+      </c>
+      <c r="F22" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="112" t="s">
+        <v>468</v>
+      </c>
+      <c r="B23" s="112">
         <v>2</v>
       </c>
-      <c r="D6" s="113" t="s">
+      <c r="C23" s="112">
+        <v>1</v>
+      </c>
+      <c r="D23" s="112" t="s">
+        <v>640</v>
+      </c>
+      <c r="E23" s="112">
+        <v>1</v>
+      </c>
+      <c r="F23" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="112" t="s">
+        <v>468</v>
+      </c>
+      <c r="B24" s="112">
+        <v>3</v>
+      </c>
+      <c r="C24" s="112">
+        <v>1</v>
+      </c>
+      <c r="D24" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E24" s="112">
+        <v>-1</v>
+      </c>
+      <c r="F24" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="112" t="s">
+        <v>468</v>
+      </c>
+      <c r="B25" s="112">
+        <v>4</v>
+      </c>
+      <c r="C25" s="112">
+        <v>1</v>
+      </c>
+      <c r="D25" s="112" t="s">
         <v>641</v>
       </c>
-      <c r="E6" s="113">
+      <c r="E25" s="112">
         <v>0</v>
       </c>
-      <c r="F6" s="113">
+      <c r="F25" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="112" t="s">
+        <v>469</v>
+      </c>
+      <c r="B26" s="112">
+        <v>1</v>
+      </c>
+      <c r="C26" s="112">
+        <v>2</v>
+      </c>
+      <c r="D26" s="112" t="s">
+        <v>640</v>
+      </c>
+      <c r="E26" s="112">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="113" t="s">
-        <v>458</v>
-      </c>
-      <c r="B7" s="113">
+      <c r="F26" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="112" t="s">
+        <v>469</v>
+      </c>
+      <c r="B27" s="112">
         <v>2</v>
       </c>
-      <c r="C7" s="113">
+      <c r="C27" s="112">
         <v>2</v>
       </c>
-      <c r="D7" s="113" t="s">
+      <c r="D27" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E27" s="112">
+        <v>-1</v>
+      </c>
+      <c r="F27" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="112" t="s">
+        <v>469</v>
+      </c>
+      <c r="B28" s="112">
+        <v>3</v>
+      </c>
+      <c r="C28" s="112">
+        <v>2</v>
+      </c>
+      <c r="D28" s="112" t="s">
+        <v>641</v>
+      </c>
+      <c r="E28" s="112">
+        <v>0</v>
+      </c>
+      <c r="F28" s="112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="112" t="s">
+        <v>469</v>
+      </c>
+      <c r="B29" s="112">
+        <v>4</v>
+      </c>
+      <c r="C29" s="112">
+        <v>2</v>
+      </c>
+      <c r="D29" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E29" s="112">
+        <v>0</v>
+      </c>
+      <c r="F29" s="112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="112" t="s">
+        <v>471</v>
+      </c>
+      <c r="B30" s="112">
+        <v>1</v>
+      </c>
+      <c r="C30" s="112">
+        <v>4</v>
+      </c>
+      <c r="D30" s="112" t="s">
+        <v>641</v>
+      </c>
+      <c r="E30" s="112">
+        <v>0</v>
+      </c>
+      <c r="F30" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="112" t="s">
+        <v>471</v>
+      </c>
+      <c r="B31" s="112">
+        <v>2</v>
+      </c>
+      <c r="C31" s="112">
+        <v>4</v>
+      </c>
+      <c r="D31" s="112" t="s">
+        <v>638</v>
+      </c>
+      <c r="E31" s="112">
+        <v>0</v>
+      </c>
+      <c r="F31" s="112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="112" t="s">
+        <v>471</v>
+      </c>
+      <c r="B32" s="112">
+        <v>3</v>
+      </c>
+      <c r="C32" s="112">
+        <v>4</v>
+      </c>
+      <c r="D32" s="112" t="s">
         <v>640</v>
       </c>
-      <c r="E7" s="113">
+      <c r="E32" s="112">
+        <v>1</v>
+      </c>
+      <c r="F32" s="112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="112" t="s">
+        <v>471</v>
+      </c>
+      <c r="B33" s="112">
+        <v>4</v>
+      </c>
+      <c r="C33" s="112">
+        <v>4</v>
+      </c>
+      <c r="D33" s="112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E33" s="112">
         <v>-1</v>
       </c>
-      <c r="F7" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="113" t="s">
-        <v>458</v>
-      </c>
-      <c r="B8" s="113">
-        <v>3</v>
-      </c>
-      <c r="C8" s="113">
-        <v>2</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E8" s="113">
-        <v>0</v>
-      </c>
-      <c r="F8" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="113" t="s">
-        <v>458</v>
-      </c>
-      <c r="B9" s="113">
-        <v>4</v>
-      </c>
-      <c r="C9" s="113">
-        <v>2</v>
-      </c>
-      <c r="D9" s="113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E9" s="113">
-        <v>0</v>
-      </c>
-      <c r="F9" s="113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="113" t="s">
-        <v>462</v>
-      </c>
-      <c r="B10" s="113">
-        <v>1</v>
-      </c>
-      <c r="C10" s="113">
-        <v>3</v>
-      </c>
-      <c r="D10" s="113" t="s">
-        <v>640</v>
-      </c>
-      <c r="E10" s="113">
-        <v>0</v>
-      </c>
-      <c r="F10" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="113" t="s">
-        <v>462</v>
-      </c>
-      <c r="B11" s="113">
-        <v>2</v>
-      </c>
-      <c r="C11" s="113">
-        <v>3</v>
-      </c>
-      <c r="D11" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E11" s="113">
-        <v>0</v>
-      </c>
-      <c r="F11" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="113" t="s">
-        <v>462</v>
-      </c>
-      <c r="B12" s="113">
-        <v>3</v>
-      </c>
-      <c r="C12" s="113">
-        <v>3</v>
-      </c>
-      <c r="D12" s="113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E12" s="113">
-        <v>0</v>
-      </c>
-      <c r="F12" s="113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="113" t="s">
-        <v>462</v>
-      </c>
-      <c r="B13" s="113">
-        <v>4</v>
-      </c>
-      <c r="C13" s="113">
-        <v>3</v>
-      </c>
-      <c r="D13" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="E13" s="113">
-        <v>1</v>
-      </c>
-      <c r="F13" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="113" t="s">
-        <v>463</v>
-      </c>
-      <c r="B14" s="113">
-        <v>1</v>
-      </c>
-      <c r="C14" s="113">
-        <v>4</v>
-      </c>
-      <c r="D14" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E14" s="113">
-        <v>0</v>
-      </c>
-      <c r="F14" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="113" t="s">
-        <v>463</v>
-      </c>
-      <c r="B15" s="113">
-        <v>2</v>
-      </c>
-      <c r="C15" s="113">
-        <v>4</v>
-      </c>
-      <c r="D15" s="113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E15" s="113">
-        <v>0</v>
-      </c>
-      <c r="F15" s="113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="113" t="s">
-        <v>463</v>
-      </c>
-      <c r="B16" s="113">
-        <v>3</v>
-      </c>
-      <c r="C16" s="113">
-        <v>4</v>
-      </c>
-      <c r="D16" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="E16" s="113">
-        <v>1</v>
-      </c>
-      <c r="F16" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="113" t="s">
-        <v>463</v>
-      </c>
-      <c r="B17" s="113">
-        <v>4</v>
-      </c>
-      <c r="C17" s="113">
-        <v>4</v>
-      </c>
-      <c r="D17" s="113" t="s">
-        <v>640</v>
-      </c>
-      <c r="E17" s="113">
-        <v>-1</v>
-      </c>
-      <c r="F17" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="113" t="s">
-        <v>465</v>
-      </c>
-      <c r="B18" s="113">
-        <v>1</v>
-      </c>
-      <c r="C18" s="113">
-        <v>3</v>
-      </c>
-      <c r="D18" s="113" t="s">
-        <v>640</v>
-      </c>
-      <c r="E18" s="113">
-        <v>0</v>
-      </c>
-      <c r="F18" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="113" t="s">
-        <v>465</v>
-      </c>
-      <c r="B19" s="113">
-        <v>2</v>
-      </c>
-      <c r="C19" s="113">
-        <v>3</v>
-      </c>
-      <c r="D19" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E19" s="113">
-        <v>0</v>
-      </c>
-      <c r="F19" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="113" t="s">
-        <v>465</v>
-      </c>
-      <c r="B20" s="113">
-        <v>3</v>
-      </c>
-      <c r="C20" s="113">
-        <v>3</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E20" s="113">
-        <v>0</v>
-      </c>
-      <c r="F20" s="113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="113" t="s">
-        <v>465</v>
-      </c>
-      <c r="B21" s="113">
-        <v>4</v>
-      </c>
-      <c r="C21" s="113">
-        <v>3</v>
-      </c>
-      <c r="D21" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="E21" s="113">
-        <v>1</v>
-      </c>
-      <c r="F21" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="113" t="s">
-        <v>468</v>
-      </c>
-      <c r="B22" s="113">
-        <v>1</v>
-      </c>
-      <c r="C22" s="113">
-        <v>1</v>
-      </c>
-      <c r="D22" s="113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E22" s="113">
-        <v>0</v>
-      </c>
-      <c r="F22" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="113" t="s">
-        <v>468</v>
-      </c>
-      <c r="B23" s="113">
-        <v>2</v>
-      </c>
-      <c r="C23" s="113">
-        <v>1</v>
-      </c>
-      <c r="D23" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="E23" s="113">
-        <v>1</v>
-      </c>
-      <c r="F23" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="113" t="s">
-        <v>468</v>
-      </c>
-      <c r="B24" s="113">
-        <v>3</v>
-      </c>
-      <c r="C24" s="113">
-        <v>1</v>
-      </c>
-      <c r="D24" s="113" t="s">
-        <v>640</v>
-      </c>
-      <c r="E24" s="113">
-        <v>-1</v>
-      </c>
-      <c r="F24" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="113" t="s">
-        <v>468</v>
-      </c>
-      <c r="B25" s="113">
-        <v>4</v>
-      </c>
-      <c r="C25" s="113">
-        <v>1</v>
-      </c>
-      <c r="D25" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E25" s="113">
-        <v>0</v>
-      </c>
-      <c r="F25" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="113" t="s">
-        <v>469</v>
-      </c>
-      <c r="B26" s="113">
-        <v>1</v>
-      </c>
-      <c r="C26" s="113">
-        <v>2</v>
-      </c>
-      <c r="D26" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="E26" s="113">
-        <v>0</v>
-      </c>
-      <c r="F26" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="113" t="s">
-        <v>469</v>
-      </c>
-      <c r="B27" s="113">
-        <v>2</v>
-      </c>
-      <c r="C27" s="113">
-        <v>2</v>
-      </c>
-      <c r="D27" s="113" t="s">
-        <v>640</v>
-      </c>
-      <c r="E27" s="113">
-        <v>-1</v>
-      </c>
-      <c r="F27" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="113" t="s">
-        <v>469</v>
-      </c>
-      <c r="B28" s="113">
-        <v>3</v>
-      </c>
-      <c r="C28" s="113">
-        <v>2</v>
-      </c>
-      <c r="D28" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E28" s="113">
-        <v>0</v>
-      </c>
-      <c r="F28" s="113">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="113" t="s">
-        <v>469</v>
-      </c>
-      <c r="B29" s="113">
-        <v>4</v>
-      </c>
-      <c r="C29" s="113">
-        <v>2</v>
-      </c>
-      <c r="D29" s="113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E29" s="113">
-        <v>0</v>
-      </c>
-      <c r="F29" s="113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="113" t="s">
-        <v>471</v>
-      </c>
-      <c r="B30" s="113">
-        <v>1</v>
-      </c>
-      <c r="C30" s="113">
-        <v>4</v>
-      </c>
-      <c r="D30" s="113" t="s">
-        <v>642</v>
-      </c>
-      <c r="E30" s="113">
-        <v>0</v>
-      </c>
-      <c r="F30" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="113" t="s">
-        <v>471</v>
-      </c>
-      <c r="B31" s="113">
-        <v>2</v>
-      </c>
-      <c r="C31" s="113">
-        <v>4</v>
-      </c>
-      <c r="D31" s="113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E31" s="113">
-        <v>0</v>
-      </c>
-      <c r="F31" s="113">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="113" t="s">
-        <v>471</v>
-      </c>
-      <c r="B32" s="113">
-        <v>3</v>
-      </c>
-      <c r="C32" s="113">
-        <v>4</v>
-      </c>
-      <c r="D32" s="113" t="s">
-        <v>641</v>
-      </c>
-      <c r="E32" s="113">
-        <v>1</v>
-      </c>
-      <c r="F32" s="113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="113" t="s">
-        <v>471</v>
-      </c>
-      <c r="B33" s="113">
-        <v>4</v>
-      </c>
-      <c r="C33" s="113">
-        <v>4</v>
-      </c>
-      <c r="D33" s="113" t="s">
-        <v>640</v>
-      </c>
-      <c r="E33" s="113">
-        <v>-1</v>
-      </c>
-      <c r="F33" s="113">
+      <c r="F33" s="112">
         <v>0</v>
       </c>
     </row>
@@ -10098,11 +10094,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D11784-2D0A-1147-8C51-02CCF0636E63}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:G208"/>
+  <dimension ref="A1:G203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F223" sqref="F223"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10127,271 +10122,271 @@
         <v>608</v>
       </c>
       <c r="F1" t="s">
+        <v>634</v>
+      </c>
+      <c r="G1" t="s">
         <v>635</v>
       </c>
-      <c r="G1" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>159</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="C2" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D2" t="s">
         <v>439</v>
       </c>
       <c r="E2" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G2" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="C3" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="E3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G3" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G4" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>359</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C5" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E5" t="s">
         <v>617</v>
       </c>
       <c r="F5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>308</v>
       </c>
       <c r="B6" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="C6" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D6" t="s">
         <v>481</v>
       </c>
       <c r="E6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G6" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>310</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="C7" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="E7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G7" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>311</v>
       </c>
       <c r="B8" t="s">
         <v>438</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D8" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="E8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>313</v>
       </c>
       <c r="B9" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C9" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D9" t="s">
         <v>481</v>
       </c>
       <c r="E9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F9" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G9" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>315</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C10" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D10" t="s">
         <v>476</v>
       </c>
       <c r="E10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G10" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="C11" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D11" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="E11" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G11" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="B12" t="s">
-        <v>438</v>
+        <v>471</v>
       </c>
       <c r="C12" t="s">
         <v>486</v>
       </c>
       <c r="D12" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E12" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G12" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B13" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="C13" t="s">
         <v>486</v>
@@ -10400,125 +10395,125 @@
         <v>441</v>
       </c>
       <c r="E13" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>311</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="C14" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D14" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G14" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B15" t="s">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="C15" t="s">
         <v>486</v>
       </c>
       <c r="D15" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="E15" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G15" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="B16" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="C16" t="s">
         <v>486</v>
       </c>
       <c r="D16" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="E16" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F16" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G16" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="B17" t="s">
         <v>438</v>
       </c>
       <c r="C17" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D17" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E17" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F17" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G17" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="B18" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C18" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D18" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="E18" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F18" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G18" t="s">
         <v>637</v>
@@ -10526,160 +10521,160 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>383</v>
+        <v>331</v>
       </c>
       <c r="B19" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C19" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D19" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="E19" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G19" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="B20" t="s">
-        <v>438</v>
+        <v>463</v>
       </c>
       <c r="C20" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D20" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E20" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G20" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>194</v>
+        <v>335</v>
       </c>
       <c r="B21" t="s">
         <v>438</v>
       </c>
       <c r="C21" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D21" t="s">
         <v>476</v>
       </c>
       <c r="E21" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F21" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G21" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>337</v>
       </c>
       <c r="B22" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="C22" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D22" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="E22" t="s">
         <v>618</v>
       </c>
       <c r="F22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G22" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>339</v>
       </c>
       <c r="B23" t="s">
         <v>458</v>
       </c>
       <c r="C23" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D23" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="E23" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G23" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>341</v>
       </c>
       <c r="B24" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C24" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D24" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E24" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F24" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G24" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>353</v>
+        <v>59</v>
       </c>
       <c r="B25" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="C25" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D25" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="E25" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F25" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G25" t="s">
         <v>637</v>
@@ -10687,68 +10682,68 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>343</v>
       </c>
       <c r="B26" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C26" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D26" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E26" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F26" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G26" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>417</v>
+        <v>345</v>
       </c>
       <c r="B27" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C27" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D27" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E27" t="s">
         <v>616</v>
       </c>
       <c r="F27" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G27" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="B28" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C28" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D28" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="E28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F28" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G28" t="s">
         <v>637</v>
@@ -10756,358 +10751,328 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="B29" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C29" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D29" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E29" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G29" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="B30" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C30" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D30" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E30" t="s">
         <v>616</v>
       </c>
       <c r="F30" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G30" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>289</v>
+        <v>353</v>
       </c>
       <c r="B31" t="s">
         <v>458</v>
       </c>
       <c r="C31" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D31" t="s">
         <v>476</v>
       </c>
       <c r="E31" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F31" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G31" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>355</v>
       </c>
       <c r="B32" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C32" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D32" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="E32" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G32" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="B33" t="s">
         <v>458</v>
       </c>
       <c r="C33" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D33" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="E33" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F33" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="B34" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="C34" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D34" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E34" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G34" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>361</v>
       </c>
       <c r="B35" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C35" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D35" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E35" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F35" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G35" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>339</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="C36" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D36" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="E36" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G36" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>423</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C37" t="s">
         <v>488</v>
       </c>
       <c r="D37" t="s">
-        <v>439</v>
+        <v>476</v>
       </c>
       <c r="E37" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G37" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>365</v>
       </c>
       <c r="B38" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C38" t="s">
         <v>488</v>
       </c>
       <c r="D38" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="E38" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F38" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>626</v>
       </c>
       <c r="B39" t="s">
-        <v>458</v>
+        <v>629</v>
       </c>
       <c r="C39" t="s">
+        <v>630</v>
+      </c>
+      <c r="F39" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>627</v>
+      </c>
+      <c r="B40" t="s">
+        <v>629</v>
+      </c>
+      <c r="C40" t="s">
+        <v>631</v>
+      </c>
+      <c r="F40" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>628</v>
+      </c>
+      <c r="B41" t="s">
+        <v>625</v>
+      </c>
+      <c r="F41" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B42" t="s">
+        <v>463</v>
+      </c>
+      <c r="C42" t="s">
         <v>488</v>
       </c>
-      <c r="D39" t="s">
-        <v>481</v>
-      </c>
-      <c r="E39" t="s">
-        <v>617</v>
-      </c>
-      <c r="F39" t="s">
-        <v>634</v>
-      </c>
-      <c r="G39" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>357</v>
-      </c>
-      <c r="B40" t="s">
-        <v>458</v>
-      </c>
-      <c r="C40" t="s">
-        <v>488</v>
-      </c>
-      <c r="D40" t="s">
-        <v>482</v>
-      </c>
-      <c r="E40" t="s">
-        <v>617</v>
-      </c>
-      <c r="F40" t="s">
-        <v>634</v>
-      </c>
-      <c r="G40" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>191</v>
-      </c>
-      <c r="B41" t="s">
-        <v>458</v>
-      </c>
-      <c r="C41" t="s">
-        <v>488</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>476</v>
-      </c>
-      <c r="E41" t="s">
-        <v>617</v>
-      </c>
-      <c r="F41" t="s">
-        <v>634</v>
-      </c>
-      <c r="G41" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>153</v>
-      </c>
-      <c r="B42" t="s">
-        <v>462</v>
-      </c>
-      <c r="C42" t="s">
-        <v>480</v>
-      </c>
-      <c r="D42" t="s">
-        <v>439</v>
       </c>
       <c r="E42" t="s">
         <v>616</v>
       </c>
       <c r="F42" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G42" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>369</v>
       </c>
       <c r="B43" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C43" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D43" t="s">
-        <v>441</v>
+        <v>476</v>
       </c>
       <c r="E43" t="s">
         <v>616</v>
       </c>
       <c r="F43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G43" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C44" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D44" t="s">
         <v>482</v>
@@ -11116,179 +11081,179 @@
         <v>616</v>
       </c>
       <c r="F44" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G44" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
       <c r="B45" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C45" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D45" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E45" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F45" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G45" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>135</v>
+        <v>375</v>
       </c>
       <c r="B46" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C46" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D46" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E46" t="s">
         <v>616</v>
       </c>
       <c r="F46" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G46" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>405</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C47" t="s">
         <v>475</v>
       </c>
       <c r="D47" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E47" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G47" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>28</v>
+        <v>377</v>
       </c>
       <c r="B48" t="s">
         <v>462</v>
       </c>
       <c r="C48" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D48" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="E48" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F48" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G48" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>268</v>
+        <v>379</v>
       </c>
       <c r="B49" t="s">
         <v>462</v>
       </c>
       <c r="C49" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D49" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E49" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F49" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G49" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>277</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C50" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D50" t="s">
         <v>482</v>
       </c>
       <c r="E50" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F50" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G50" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>286</v>
+        <v>383</v>
       </c>
       <c r="B51" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C51" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D51" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E51" t="s">
         <v>609</v>
       </c>
       <c r="F51" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G51" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C52" t="s">
         <v>486</v>
@@ -11297,33 +11262,33 @@
         <v>439</v>
       </c>
       <c r="E52" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F52" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G52" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>323</v>
+        <v>387</v>
       </c>
       <c r="B53" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C53" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D53" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="E53" t="s">
         <v>617</v>
       </c>
       <c r="F53" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G53" t="s">
         <v>637</v>
@@ -11331,183 +11296,183 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>306</v>
+        <v>389</v>
       </c>
       <c r="B54" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C54" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D54" t="s">
         <v>481</v>
       </c>
       <c r="E54" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F54" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G54" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B55" t="s">
         <v>462</v>
       </c>
       <c r="C55" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D55" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E55" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F55" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G55" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>315</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C56" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D56" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E56" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F56" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G56" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>421</v>
+        <v>395</v>
       </c>
       <c r="B57" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C57" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D57" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="E57" t="s">
         <v>618</v>
       </c>
       <c r="F57" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G57" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B58" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C58" t="s">
         <v>488</v>
       </c>
       <c r="D58" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="E58" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F58" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G58" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B59" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C59" t="s">
         <v>488</v>
       </c>
       <c r="D59" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="E59" t="s">
         <v>618</v>
       </c>
       <c r="F59" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G59" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="B60" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C60" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D60" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="E60" t="s">
         <v>618</v>
       </c>
       <c r="F60" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G60" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="B61" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C61" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D61" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E61" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F61" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G61" t="s">
         <v>637</v>
@@ -11515,36 +11480,36 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>403</v>
       </c>
       <c r="B62" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C62" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D62" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="E62" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F62" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G62" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>405</v>
       </c>
       <c r="B63" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C63" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D63" t="s">
         <v>439</v>
@@ -11553,87 +11518,87 @@
         <v>609</v>
       </c>
       <c r="F63" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G63" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="B64" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="C64" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E64" t="s">
         <v>609</v>
       </c>
       <c r="F64" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G64" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>409</v>
       </c>
       <c r="B65" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C65" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D65" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="E65" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F65" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G65" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>349</v>
+        <v>411</v>
       </c>
       <c r="B66" t="s">
         <v>463</v>
       </c>
       <c r="C66" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D66" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E66" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F66" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G66" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B67" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C67" t="s">
         <v>475</v>
@@ -11642,33 +11607,33 @@
         <v>439</v>
       </c>
       <c r="E67" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F67" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G67" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="B68" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C68" t="s">
         <v>475</v>
       </c>
       <c r="D68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E68" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F68" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G68" t="s">
         <v>637</v>
@@ -11676,82 +11641,82 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>241</v>
+        <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C69" t="s">
         <v>475</v>
       </c>
       <c r="D69" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E69" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F69" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G69" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>296</v>
+        <v>417</v>
       </c>
       <c r="B70" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C70" t="s">
         <v>475</v>
       </c>
       <c r="D70" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="E70" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F70" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G70" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>256</v>
+        <v>419</v>
       </c>
       <c r="B71" t="s">
         <v>463</v>
       </c>
       <c r="C71" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D71" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E71" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F71" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G71" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>217</v>
+        <v>421</v>
       </c>
       <c r="B72" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C72" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D72" t="s">
         <v>439</v>
@@ -11760,797 +11725,698 @@
         <v>618</v>
       </c>
       <c r="F72" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G72" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>321</v>
+        <v>423</v>
       </c>
       <c r="B73" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C73" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D73" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E73" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F73" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G73" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="B74" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C74" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="D74" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="E74" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F74" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G74" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C75" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="D75" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="E75" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F75" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G75" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>333</v>
+        <v>429</v>
       </c>
       <c r="B76" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C76" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D76" t="s">
         <v>476</v>
       </c>
       <c r="E76" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F76" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G76" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>419</v>
+        <v>533</v>
       </c>
       <c r="B77" t="s">
-        <v>463</v>
+        <v>438</v>
       </c>
       <c r="C77" t="s">
-        <v>488</v>
-      </c>
-      <c r="D77" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="E77" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F77" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G77" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>534</v>
       </c>
       <c r="B78" t="s">
         <v>463</v>
       </c>
       <c r="C78" t="s">
-        <v>488</v>
-      </c>
-      <c r="D78" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E78" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F78" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G78" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>535</v>
       </c>
       <c r="B79" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C79" t="s">
-        <v>488</v>
-      </c>
-      <c r="D79" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E79" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F79" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G79" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>463</v>
       </c>
       <c r="C80" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D80" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="E80" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F80" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G80" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>367</v>
+        <v>536</v>
       </c>
       <c r="B81" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C81" t="s">
         <v>488</v>
       </c>
-      <c r="D81" t="s">
-        <v>476</v>
-      </c>
       <c r="E81" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F81" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G81" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>150</v>
+        <v>537</v>
       </c>
       <c r="B82" t="s">
-        <v>465</v>
-      </c>
-      <c r="C82" t="s">
-        <v>480</v>
-      </c>
-      <c r="D82" t="s">
-        <v>439</v>
-      </c>
-      <c r="E82" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
       <c r="F82" t="s">
-        <v>634</v>
-      </c>
-      <c r="G82" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>540</v>
       </c>
       <c r="B83" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="C83" t="s">
         <v>480</v>
       </c>
-      <c r="D83" t="s">
-        <v>441</v>
-      </c>
       <c r="E83" t="s">
         <v>616</v>
       </c>
       <c r="F83" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G83" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>541</v>
       </c>
       <c r="B84" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C84" t="s">
-        <v>480</v>
-      </c>
-      <c r="D84" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E84" t="s">
         <v>616</v>
       </c>
       <c r="F84" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G84" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>542</v>
       </c>
       <c r="B85" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="C85" t="s">
-        <v>480</v>
-      </c>
-      <c r="D85" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="E85" t="s">
         <v>616</v>
       </c>
       <c r="F85" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G85" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>429</v>
+        <v>543</v>
       </c>
       <c r="B86" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C86" t="s">
-        <v>480</v>
-      </c>
-      <c r="D86" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="E86" t="s">
         <v>616</v>
       </c>
       <c r="F86" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G86" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>415</v>
+        <v>544</v>
       </c>
       <c r="B87" t="s">
-        <v>465</v>
-      </c>
-      <c r="C87" t="s">
-        <v>475</v>
-      </c>
-      <c r="D87" t="s">
-        <v>439</v>
-      </c>
-      <c r="E87" t="s">
-        <v>609</v>
+        <v>625</v>
       </c>
       <c r="F87" t="s">
-        <v>634</v>
-      </c>
-      <c r="G87" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>46</v>
+        <v>546</v>
       </c>
       <c r="B88" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C88" t="s">
-        <v>475</v>
-      </c>
-      <c r="D88" t="s">
-        <v>441</v>
+        <v>480</v>
       </c>
       <c r="E88" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F88" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G88" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>293</v>
+        <v>547</v>
       </c>
       <c r="B89" t="s">
-        <v>465</v>
+        <v>438</v>
       </c>
       <c r="C89" t="s">
         <v>475</v>
       </c>
-      <c r="D89" t="s">
-        <v>481</v>
-      </c>
       <c r="E89" t="s">
+        <v>618</v>
+      </c>
+      <c r="F89" t="s">
+        <v>632</v>
+      </c>
+      <c r="G89" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>548</v>
+      </c>
+      <c r="B90" t="s">
+        <v>463</v>
+      </c>
+      <c r="C90" t="s">
+        <v>486</v>
+      </c>
+      <c r="E90" t="s">
+        <v>618</v>
+      </c>
+      <c r="F90" t="s">
+        <v>632</v>
+      </c>
+      <c r="G90" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>81</v>
+      </c>
+      <c r="B91" t="s">
+        <v>462</v>
+      </c>
+      <c r="C91" t="s">
+        <v>488</v>
+      </c>
+      <c r="D91" t="s">
+        <v>441</v>
+      </c>
+      <c r="E91" t="s">
+        <v>618</v>
+      </c>
+      <c r="F91" t="s">
+        <v>633</v>
+      </c>
+      <c r="G91" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>549</v>
+      </c>
+      <c r="B92" t="s">
+        <v>462</v>
+      </c>
+      <c r="C92" t="s">
+        <v>488</v>
+      </c>
+      <c r="E92" t="s">
+        <v>618</v>
+      </c>
+      <c r="F92" t="s">
+        <v>632</v>
+      </c>
+      <c r="G92" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>552</v>
+      </c>
+      <c r="B93" t="s">
+        <v>463</v>
+      </c>
+      <c r="C93" t="s">
+        <v>480</v>
+      </c>
+      <c r="E93" t="s">
         <v>609</v>
       </c>
-      <c r="F89" t="s">
-        <v>634</v>
-      </c>
-      <c r="G89" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" t="s">
-        <v>465</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="F93" t="s">
+        <v>632</v>
+      </c>
+      <c r="G93" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>554</v>
+      </c>
+      <c r="B94" t="s">
+        <v>462</v>
+      </c>
+      <c r="C94" t="s">
         <v>475</v>
       </c>
-      <c r="D90" t="s">
-        <v>482</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="E94" t="s">
         <v>609</v>
       </c>
-      <c r="F90" t="s">
-        <v>634</v>
-      </c>
-      <c r="G90" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>259</v>
-      </c>
-      <c r="B91" t="s">
-        <v>465</v>
-      </c>
-      <c r="C91" t="s">
-        <v>475</v>
-      </c>
-      <c r="D91" t="s">
-        <v>476</v>
-      </c>
-      <c r="E91" t="s">
-        <v>609</v>
-      </c>
-      <c r="F91" t="s">
-        <v>634</v>
-      </c>
-      <c r="G91" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>214</v>
-      </c>
-      <c r="B92" t="s">
-        <v>465</v>
-      </c>
-      <c r="C92" t="s">
-        <v>486</v>
-      </c>
-      <c r="D92" t="s">
-        <v>439</v>
-      </c>
-      <c r="E92" t="s">
-        <v>617</v>
-      </c>
-      <c r="F92" t="s">
-        <v>634</v>
-      </c>
-      <c r="G92" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>331</v>
-      </c>
-      <c r="B93" t="s">
-        <v>465</v>
-      </c>
-      <c r="C93" t="s">
-        <v>486</v>
-      </c>
-      <c r="D93" t="s">
-        <v>441</v>
-      </c>
-      <c r="E93" t="s">
-        <v>617</v>
-      </c>
-      <c r="F93" t="s">
-        <v>634</v>
-      </c>
-      <c r="G93" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>313</v>
-      </c>
-      <c r="B94" t="s">
-        <v>465</v>
-      </c>
-      <c r="C94" t="s">
-        <v>486</v>
-      </c>
-      <c r="D94" t="s">
-        <v>481</v>
-      </c>
-      <c r="E94" t="s">
-        <v>617</v>
-      </c>
       <c r="F94" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G94" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>232</v>
+        <v>556</v>
       </c>
       <c r="B95" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C95" t="s">
         <v>486</v>
       </c>
-      <c r="D95" t="s">
-        <v>482</v>
-      </c>
       <c r="E95" t="s">
+        <v>609</v>
+      </c>
+      <c r="F95" t="s">
+        <v>632</v>
+      </c>
+      <c r="G95" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>558</v>
+      </c>
+      <c r="B96" t="s">
+        <v>438</v>
+      </c>
+      <c r="C96" t="s">
+        <v>488</v>
+      </c>
+      <c r="E96" t="s">
+        <v>609</v>
+      </c>
+      <c r="F96" t="s">
+        <v>632</v>
+      </c>
+      <c r="G96" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>562</v>
+      </c>
+      <c r="B97" t="s">
+        <v>468</v>
+      </c>
+      <c r="C97" t="s">
+        <v>480</v>
+      </c>
+      <c r="E97" t="s">
         <v>617</v>
       </c>
-      <c r="F95" t="s">
-        <v>634</v>
-      </c>
-      <c r="G95" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>329</v>
-      </c>
-      <c r="B96" t="s">
-        <v>465</v>
-      </c>
-      <c r="C96" t="s">
-        <v>486</v>
-      </c>
-      <c r="D96" t="s">
-        <v>476</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="F97" t="s">
+        <v>632</v>
+      </c>
+      <c r="G97" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>564</v>
+      </c>
+      <c r="B98" t="s">
+        <v>471</v>
+      </c>
+      <c r="C98" t="s">
+        <v>475</v>
+      </c>
+      <c r="E98" t="s">
         <v>617</v>
       </c>
-      <c r="F96" t="s">
-        <v>634</v>
-      </c>
-      <c r="G96" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>397</v>
-      </c>
-      <c r="B97" t="s">
-        <v>465</v>
-      </c>
-      <c r="C97" t="s">
-        <v>488</v>
-      </c>
-      <c r="D97" t="s">
-        <v>439</v>
-      </c>
-      <c r="E97" t="s">
-        <v>618</v>
-      </c>
-      <c r="F97" t="s">
-        <v>634</v>
-      </c>
-      <c r="G97" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B98" t="s">
-        <v>465</v>
-      </c>
-      <c r="C98" t="s">
-        <v>488</v>
-      </c>
-      <c r="D98" t="s">
-        <v>441</v>
-      </c>
-      <c r="E98" t="s">
-        <v>618</v>
-      </c>
       <c r="F98" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G98" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>389</v>
+        <v>566</v>
       </c>
       <c r="B99" t="s">
         <v>465</v>
       </c>
       <c r="C99" t="s">
-        <v>488</v>
-      </c>
-      <c r="D99" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E99" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F99" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G99" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>84</v>
       </c>
       <c r="B100" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C100" t="s">
         <v>488</v>
       </c>
       <c r="D100" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="E100" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F100" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G100" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>361</v>
+        <v>568</v>
       </c>
       <c r="B101" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C101" t="s">
         <v>488</v>
       </c>
-      <c r="D101" t="s">
-        <v>476</v>
-      </c>
       <c r="E101" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F101" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G101" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>144</v>
+        <v>572</v>
       </c>
       <c r="B102" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C102" t="s">
         <v>480</v>
       </c>
-      <c r="D102" t="s">
-        <v>439</v>
-      </c>
       <c r="E102" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F102" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G102" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>347</v>
+        <v>574</v>
       </c>
       <c r="B103" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C103" t="s">
-        <v>480</v>
-      </c>
-      <c r="D103" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="E103" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F103" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G103" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>576</v>
       </c>
       <c r="B104" t="s">
         <v>468</v>
       </c>
       <c r="C104" t="s">
-        <v>480</v>
-      </c>
-      <c r="D104" t="s">
-        <v>441</v>
+        <v>486</v>
       </c>
       <c r="E104" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F104" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G104" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>578</v>
       </c>
       <c r="B105" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C105" t="s">
-        <v>480</v>
-      </c>
-      <c r="D105" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E105" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F105" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G105" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>55</v>
+        <v>582</v>
       </c>
       <c r="B106" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C106" t="s">
         <v>480</v>
       </c>
-      <c r="D106" t="s">
-        <v>476</v>
-      </c>
       <c r="E106" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F106" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G106" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>247</v>
+        <v>584</v>
       </c>
       <c r="B107" t="s">
         <v>468</v>
@@ -12558,255 +12424,207 @@
       <c r="C107" t="s">
         <v>475</v>
       </c>
-      <c r="D107" t="s">
-        <v>439</v>
-      </c>
       <c r="E107" t="s">
         <v>618</v>
       </c>
       <c r="F107" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G107" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>265</v>
+        <v>586</v>
       </c>
       <c r="B108" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C108" t="s">
-        <v>475</v>
-      </c>
-      <c r="D108" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="E108" t="s">
         <v>618</v>
       </c>
       <c r="F108" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G108" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>274</v>
+        <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C109" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D109" t="s">
         <v>482</v>
       </c>
       <c r="E109" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F109" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G109" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>280</v>
+        <v>87</v>
       </c>
       <c r="B110" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C110" t="s">
-        <v>475</v>
+        <v>488</v>
       </c>
       <c r="D110" t="s">
-        <v>476</v>
+        <v>441</v>
       </c>
       <c r="E110" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F110" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G110" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>201</v>
+        <v>588</v>
       </c>
       <c r="B111" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C111" t="s">
-        <v>475</v>
-      </c>
-      <c r="D111" t="s">
-        <v>441</v>
+        <v>488</v>
       </c>
       <c r="E111" t="s">
         <v>618</v>
       </c>
       <c r="F111" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G111" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>31</v>
+        <v>590</v>
       </c>
       <c r="B112" t="s">
-        <v>468</v>
+        <v>629</v>
       </c>
       <c r="C112" t="s">
-        <v>486</v>
-      </c>
-      <c r="D112" t="s">
-        <v>439</v>
-      </c>
-      <c r="E112" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="F112" t="s">
-        <v>634</v>
-      </c>
-      <c r="G112" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>345</v>
+        <v>595</v>
       </c>
       <c r="B113" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C113" t="s">
-        <v>486</v>
-      </c>
-      <c r="D113" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E113" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F113" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G113" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>304</v>
+        <v>596</v>
       </c>
       <c r="B114" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C114" t="s">
         <v>486</v>
       </c>
-      <c r="D114" t="s">
-        <v>481</v>
-      </c>
       <c r="E114" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F114" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G114" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>226</v>
+        <v>598</v>
       </c>
       <c r="B115" t="s">
         <v>468</v>
       </c>
       <c r="C115" t="s">
-        <v>486</v>
-      </c>
-      <c r="D115" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="E115" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F115" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G115" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>343</v>
+        <v>600</v>
       </c>
       <c r="B116" t="s">
-        <v>468</v>
-      </c>
-      <c r="C116" t="s">
-        <v>486</v>
-      </c>
-      <c r="D116" t="s">
-        <v>476</v>
-      </c>
-      <c r="E116" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="F116" t="s">
-        <v>634</v>
-      </c>
-      <c r="G116" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>425</v>
+        <v>603</v>
       </c>
       <c r="B117" t="s">
-        <v>468</v>
+        <v>629</v>
       </c>
       <c r="C117" t="s">
-        <v>488</v>
-      </c>
-      <c r="D117" t="s">
-        <v>439</v>
-      </c>
-      <c r="E117" t="s">
-        <v>609</v>
+        <v>631</v>
       </c>
       <c r="F117" t="s">
-        <v>634</v>
-      </c>
-      <c r="G117" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B118" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C118" t="s">
         <v>488</v>
@@ -12815,18 +12633,18 @@
         <v>441</v>
       </c>
       <c r="E118" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F118" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G118" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>393</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
         <v>468</v>
@@ -12835,116 +12653,116 @@
         <v>488</v>
       </c>
       <c r="D119" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="E119" t="s">
         <v>609</v>
       </c>
       <c r="F119" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G119" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="B120" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C120" t="s">
         <v>488</v>
       </c>
       <c r="D120" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E120" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F120" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G120" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>363</v>
+        <v>99</v>
       </c>
       <c r="B121" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C121" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D121" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E121" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F121" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G121" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="B122" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="C122" t="s">
         <v>480</v>
       </c>
       <c r="D122" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="E122" t="s">
         <v>618</v>
       </c>
       <c r="F122" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G122" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>165</v>
+        <v>105</v>
       </c>
       <c r="B123" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C123" t="s">
         <v>480</v>
       </c>
       <c r="D123" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="E123" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F123" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G123" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B124" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C124" t="s">
         <v>480</v>
@@ -12953,44 +12771,44 @@
         <v>482</v>
       </c>
       <c r="E124" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F124" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G124" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>355</v>
+        <v>111</v>
       </c>
       <c r="B125" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="C125" t="s">
         <v>480</v>
       </c>
       <c r="D125" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E125" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F125" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G125" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="B126" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C126" t="s">
         <v>480</v>
@@ -12999,803 +12817,773 @@
         <v>441</v>
       </c>
       <c r="E126" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F126" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G126" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>413</v>
+        <v>25</v>
       </c>
       <c r="B127" t="s">
         <v>469</v>
       </c>
       <c r="C127" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D127" t="s">
         <v>439</v>
       </c>
       <c r="E127" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F127" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G127" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B128" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C128" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D128" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="E128" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F128" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G128" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>262</v>
+        <v>120</v>
       </c>
       <c r="B129" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C129" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D129" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E129" t="s">
         <v>616</v>
       </c>
       <c r="F129" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G129" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>235</v>
+        <v>123</v>
       </c>
       <c r="B130" t="s">
         <v>469</v>
       </c>
       <c r="C130" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D130" t="s">
         <v>482</v>
       </c>
       <c r="E130" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F130" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G130" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>427</v>
+        <v>126</v>
       </c>
       <c r="B131" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C131" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D131" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="E131" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F131" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G131" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B132" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C132" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D132" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E132" t="s">
         <v>609</v>
       </c>
       <c r="F132" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G132" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C133" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D133" t="s">
         <v>441</v>
       </c>
       <c r="E133" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F133" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G133" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>308</v>
+        <v>135</v>
       </c>
       <c r="B134" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C134" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D134" t="s">
         <v>481</v>
       </c>
       <c r="E134" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F134" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G134" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C135" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D135" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="E135" t="s">
         <v>609</v>
       </c>
       <c r="F135" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G135" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>341</v>
+        <v>622</v>
       </c>
       <c r="B136" t="s">
-        <v>469</v>
+        <v>629</v>
       </c>
       <c r="C136" t="s">
-        <v>486</v>
-      </c>
-      <c r="D136" t="s">
-        <v>476</v>
-      </c>
-      <c r="E136" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
       <c r="F136" t="s">
-        <v>634</v>
-      </c>
-      <c r="G136" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>403</v>
+        <v>623</v>
       </c>
       <c r="B137" t="s">
-        <v>469</v>
+        <v>629</v>
       </c>
       <c r="C137" t="s">
-        <v>488</v>
-      </c>
-      <c r="D137" t="s">
-        <v>439</v>
-      </c>
-      <c r="E137" t="s">
+        <v>631</v>
+      </c>
+      <c r="F137" t="s">
         <v>617</v>
       </c>
-      <c r="F137" t="s">
-        <v>634</v>
-      </c>
-      <c r="G137" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="B138" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C138" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="D138" t="s">
         <v>441</v>
       </c>
       <c r="E138" t="s">
+        <v>609</v>
+      </c>
+      <c r="F138" t="s">
+        <v>633</v>
+      </c>
+      <c r="G138" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>624</v>
+      </c>
+      <c r="B139" t="s">
+        <v>625</v>
+      </c>
+      <c r="F139" t="s">
         <v>617</v>
       </c>
-      <c r="F138" t="s">
-        <v>634</v>
-      </c>
-      <c r="G138" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>387</v>
-      </c>
-      <c r="B139" t="s">
-        <v>469</v>
-      </c>
-      <c r="C139" t="s">
-        <v>488</v>
-      </c>
-      <c r="D139" t="s">
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="s">
+        <v>438</v>
+      </c>
+      <c r="C140" t="s">
+        <v>480</v>
+      </c>
+      <c r="D140" t="s">
         <v>481</v>
-      </c>
-      <c r="E139" t="s">
-        <v>617</v>
-      </c>
-      <c r="F139" t="s">
-        <v>634</v>
-      </c>
-      <c r="G139" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>198</v>
-      </c>
-      <c r="B140" t="s">
-        <v>469</v>
-      </c>
-      <c r="C140" t="s">
-        <v>488</v>
-      </c>
-      <c r="D140" t="s">
-        <v>482</v>
       </c>
       <c r="E140" t="s">
         <v>617</v>
       </c>
       <c r="F140" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G140" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>207</v>
+        <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C141" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D141" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E141" t="s">
         <v>617</v>
       </c>
       <c r="F141" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G141" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C142" t="s">
         <v>480</v>
       </c>
       <c r="D142" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="E142" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G142" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="B143" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C143" t="s">
         <v>480</v>
       </c>
       <c r="D143" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E143" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F143" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G143" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B144" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C144" t="s">
         <v>480</v>
       </c>
       <c r="D144" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="E144" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F144" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G144" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>117</v>
+        <v>156</v>
       </c>
       <c r="B145" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C145" t="s">
         <v>480</v>
       </c>
       <c r="D145" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="E145" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F145" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G145" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="B146" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="C146" t="s">
         <v>480</v>
       </c>
       <c r="D146" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E146" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F146" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G146" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>401</v>
+        <v>162</v>
       </c>
       <c r="B147" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C147" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D147" t="s">
         <v>439</v>
       </c>
       <c r="E147" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F147" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G147" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
       <c r="B148" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C148" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D148" t="s">
-        <v>441</v>
+        <v>481</v>
       </c>
       <c r="E148" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F148" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G148" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>238</v>
+        <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C149" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D149" t="s">
-        <v>481</v>
+        <v>439</v>
       </c>
       <c r="E149" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F149" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G149" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>253</v>
+        <v>168</v>
       </c>
       <c r="B150" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C150" t="s">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="D150" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="E150" t="s">
         <v>617</v>
       </c>
       <c r="F150" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G150" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="B151" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C151" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="D151" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="E151" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F151" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G151" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>36</v>
+        <v>174</v>
       </c>
       <c r="B152" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C152" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D152" t="s">
+        <v>481</v>
+      </c>
+      <c r="E152" t="s">
+        <v>616</v>
+      </c>
+      <c r="F152" t="s">
+        <v>633</v>
+      </c>
+      <c r="G152" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>175</v>
+      </c>
+      <c r="B153" t="s">
+        <v>463</v>
+      </c>
+      <c r="C153" t="s">
+        <v>480</v>
+      </c>
+      <c r="D153" t="s">
         <v>439</v>
       </c>
-      <c r="E152" t="s">
-        <v>618</v>
-      </c>
-      <c r="F152" t="s">
-        <v>634</v>
-      </c>
-      <c r="G152" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>319</v>
-      </c>
-      <c r="B153" t="s">
-        <v>471</v>
-      </c>
-      <c r="C153" t="s">
-        <v>486</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
+        <v>609</v>
+      </c>
+      <c r="F153" t="s">
+        <v>633</v>
+      </c>
+      <c r="G153" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>176</v>
+      </c>
+      <c r="B154" t="s">
+        <v>458</v>
+      </c>
+      <c r="C154" t="s">
+        <v>480</v>
+      </c>
+      <c r="D154" t="s">
         <v>441</v>
-      </c>
-      <c r="E153" t="s">
-        <v>618</v>
-      </c>
-      <c r="F153" t="s">
-        <v>634</v>
-      </c>
-      <c r="G153" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>300</v>
-      </c>
-      <c r="B154" t="s">
-        <v>471</v>
-      </c>
-      <c r="C154" t="s">
-        <v>486</v>
-      </c>
-      <c r="D154" t="s">
-        <v>481</v>
       </c>
       <c r="E154" t="s">
         <v>618</v>
       </c>
       <c r="F154" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G154" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>381</v>
+        <v>179</v>
       </c>
       <c r="B155" t="s">
         <v>471</v>
       </c>
       <c r="C155" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D155" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E155" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F155" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G155" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>337</v>
+        <v>182</v>
       </c>
       <c r="B156" t="s">
         <v>471</v>
       </c>
       <c r="C156" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D156" t="s">
         <v>476</v>
       </c>
       <c r="E156" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F156" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G156" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>409</v>
+        <v>185</v>
       </c>
       <c r="B157" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C157" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D157" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E157" t="s">
         <v>616</v>
       </c>
       <c r="F157" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G157" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>59</v>
+        <v>188</v>
       </c>
       <c r="B158" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="C158" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D158" t="s">
         <v>441</v>
       </c>
       <c r="E158" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F158" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G158" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="B159" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C159" t="s">
         <v>488</v>
       </c>
       <c r="D159" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E159" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F159" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G159" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>375</v>
+        <v>36</v>
       </c>
       <c r="B160" t="s">
         <v>471</v>
       </c>
       <c r="C160" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D160" t="s">
-        <v>482</v>
+        <v>439</v>
       </c>
       <c r="E160" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F160" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G160" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>369</v>
+        <v>194</v>
       </c>
       <c r="B161" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="C161" t="s">
         <v>488</v>
@@ -13804,856 +13592,986 @@
         <v>476</v>
       </c>
       <c r="E161" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F161" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G161" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>533</v>
+        <v>197</v>
       </c>
       <c r="B162" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="C162" t="s">
-        <v>480</v>
+        <v>488</v>
+      </c>
+      <c r="D162" t="s">
+        <v>482</v>
       </c>
       <c r="E162" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F162" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G162" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>534</v>
+        <v>198</v>
       </c>
       <c r="B163" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C163" t="s">
-        <v>475</v>
+        <v>488</v>
+      </c>
+      <c r="D163" t="s">
+        <v>482</v>
       </c>
       <c r="E163" t="s">
         <v>617</v>
       </c>
       <c r="F163" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G163" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>535</v>
+        <v>201</v>
       </c>
       <c r="B164" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="C164" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D164" t="s">
+        <v>441</v>
       </c>
       <c r="E164" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F164" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G164" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>536</v>
+        <v>204</v>
       </c>
       <c r="B165" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C165" t="s">
         <v>488</v>
       </c>
+      <c r="D165" t="s">
+        <v>441</v>
+      </c>
       <c r="E165" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F165" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G165" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>537</v>
+        <v>207</v>
       </c>
       <c r="B166" t="s">
-        <v>629</v>
+        <v>469</v>
+      </c>
+      <c r="C166" t="s">
+        <v>488</v>
+      </c>
+      <c r="D166" t="s">
+        <v>476</v>
+      </c>
+      <c r="E166" t="s">
+        <v>617</v>
       </c>
       <c r="F166" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="G166" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>540</v>
+        <v>210</v>
       </c>
       <c r="B167" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="C167" t="s">
-        <v>480</v>
+        <v>488</v>
+      </c>
+      <c r="D167" t="s">
+        <v>441</v>
       </c>
       <c r="E167" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F167" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G167" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>541</v>
+        <v>213</v>
       </c>
       <c r="B168" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="C168" t="s">
-        <v>475</v>
+        <v>488</v>
+      </c>
+      <c r="D168" t="s">
+        <v>482</v>
       </c>
       <c r="E168" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F168" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G168" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>542</v>
+        <v>214</v>
       </c>
       <c r="B169" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="C169" t="s">
         <v>486</v>
       </c>
+      <c r="D169" t="s">
+        <v>439</v>
+      </c>
       <c r="E169" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F169" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G169" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>543</v>
+        <v>217</v>
       </c>
       <c r="B170" t="s">
         <v>463</v>
       </c>
       <c r="C170" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+      <c r="D170" t="s">
+        <v>439</v>
       </c>
       <c r="E170" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F170" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G170" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>544</v>
+        <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>625</v>
+        <v>438</v>
+      </c>
+      <c r="C171" t="s">
+        <v>475</v>
+      </c>
+      <c r="D171" t="s">
+        <v>441</v>
+      </c>
+      <c r="E171" t="s">
+        <v>618</v>
       </c>
       <c r="F171" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="G171" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>546</v>
+        <v>220</v>
       </c>
       <c r="B172" t="s">
         <v>458</v>
       </c>
       <c r="C172" t="s">
-        <v>480</v>
+        <v>486</v>
+      </c>
+      <c r="D172" t="s">
+        <v>482</v>
       </c>
       <c r="E172" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F172" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G172" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>547</v>
+        <v>223</v>
       </c>
       <c r="B173" t="s">
         <v>438</v>
       </c>
       <c r="C173" t="s">
-        <v>475</v>
+        <v>486</v>
+      </c>
+      <c r="D173" t="s">
+        <v>482</v>
       </c>
       <c r="E173" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F173" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G173" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>548</v>
+        <v>226</v>
       </c>
       <c r="B174" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="C174" t="s">
         <v>486</v>
       </c>
+      <c r="D174" t="s">
+        <v>482</v>
+      </c>
       <c r="E174" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F174" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G174" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>549</v>
+        <v>229</v>
       </c>
       <c r="B175" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="C175" t="s">
-        <v>488</v>
+        <v>486</v>
+      </c>
+      <c r="D175" t="s">
+        <v>482</v>
       </c>
       <c r="E175" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F175" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G175" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>550</v>
+        <v>232</v>
       </c>
       <c r="B176" t="s">
-        <v>551</v>
+        <v>465</v>
+      </c>
+      <c r="C176" t="s">
+        <v>486</v>
+      </c>
+      <c r="D176" t="s">
+        <v>482</v>
+      </c>
+      <c r="E176" t="s">
+        <v>617</v>
       </c>
       <c r="F176" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G176" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>552</v>
+        <v>235</v>
       </c>
       <c r="B177" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="C177" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="D177" t="s">
+        <v>482</v>
       </c>
       <c r="E177" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F177" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G177" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>554</v>
+        <v>238</v>
       </c>
       <c r="B178" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C178" t="s">
         <v>475</v>
       </c>
+      <c r="D178" t="s">
+        <v>481</v>
+      </c>
       <c r="E178" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F178" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G178" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>556</v>
+        <v>241</v>
       </c>
       <c r="B179" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C179" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D179" t="s">
+        <v>481</v>
       </c>
       <c r="E179" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="F179" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G179" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>558</v>
+        <v>244</v>
       </c>
       <c r="B180" t="s">
         <v>438</v>
       </c>
       <c r="C180" t="s">
-        <v>488</v>
+        <v>475</v>
+      </c>
+      <c r="D180" t="s">
+        <v>476</v>
       </c>
       <c r="E180" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F180" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G180" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>560</v>
+        <v>247</v>
       </c>
       <c r="B181" t="s">
-        <v>551</v>
+        <v>468</v>
+      </c>
+      <c r="C181" t="s">
+        <v>475</v>
+      </c>
+      <c r="D181" t="s">
+        <v>439</v>
+      </c>
+      <c r="E181" t="s">
+        <v>618</v>
       </c>
       <c r="F181" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G181" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>562</v>
+        <v>46</v>
       </c>
       <c r="B182" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C182" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="D182" t="s">
+        <v>441</v>
       </c>
       <c r="E182" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="F182" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G182" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>564</v>
+        <v>250</v>
       </c>
       <c r="B183" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C183" t="s">
         <v>475</v>
       </c>
+      <c r="D183" t="s">
+        <v>482</v>
+      </c>
       <c r="E183" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F183" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G183" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>566</v>
+        <v>253</v>
       </c>
       <c r="B184" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C184" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D184" t="s">
+        <v>482</v>
       </c>
       <c r="E184" t="s">
         <v>617</v>
       </c>
       <c r="F184" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G184" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>568</v>
+        <v>256</v>
       </c>
       <c r="B185" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C185" t="s">
-        <v>488</v>
+        <v>475</v>
+      </c>
+      <c r="D185" t="s">
+        <v>476</v>
       </c>
       <c r="E185" t="s">
         <v>617</v>
       </c>
       <c r="F185" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G185" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>570</v>
+        <v>259</v>
       </c>
       <c r="B186" t="s">
-        <v>551</v>
+        <v>465</v>
+      </c>
+      <c r="C186" t="s">
+        <v>475</v>
+      </c>
+      <c r="D186" t="s">
+        <v>476</v>
+      </c>
+      <c r="E186" t="s">
+        <v>609</v>
       </c>
       <c r="F186" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G186" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>572</v>
+        <v>262</v>
       </c>
       <c r="B187" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C187" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="D187" t="s">
+        <v>481</v>
       </c>
       <c r="E187" t="s">
         <v>616</v>
       </c>
       <c r="F187" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G187" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>574</v>
+        <v>265</v>
       </c>
       <c r="B188" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C188" t="s">
         <v>475</v>
       </c>
+      <c r="D188" t="s">
+        <v>481</v>
+      </c>
       <c r="E188" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="F188" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G188" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>576</v>
+        <v>268</v>
       </c>
       <c r="B189" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C189" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D189" t="s">
+        <v>481</v>
       </c>
       <c r="E189" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="F189" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G189" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>578</v>
+        <v>271</v>
       </c>
       <c r="B190" t="s">
-        <v>471</v>
+        <v>458</v>
       </c>
       <c r="C190" t="s">
-        <v>488</v>
+        <v>475</v>
+      </c>
+      <c r="D190" t="s">
+        <v>481</v>
       </c>
       <c r="E190" t="s">
         <v>616</v>
       </c>
       <c r="F190" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G190" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>580</v>
+        <v>274</v>
       </c>
       <c r="B191" t="s">
-        <v>551</v>
+        <v>468</v>
+      </c>
+      <c r="C191" t="s">
+        <v>475</v>
+      </c>
+      <c r="D191" t="s">
+        <v>482</v>
+      </c>
+      <c r="E191" t="s">
+        <v>618</v>
       </c>
       <c r="F191" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G191" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>582</v>
+        <v>277</v>
       </c>
       <c r="B192" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C192" t="s">
-        <v>480</v>
+        <v>475</v>
+      </c>
+      <c r="D192" t="s">
+        <v>482</v>
       </c>
       <c r="E192" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="F192" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G192" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>584</v>
+        <v>49</v>
       </c>
       <c r="B193" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="C193" t="s">
         <v>475</v>
       </c>
+      <c r="D193" t="s">
+        <v>441</v>
+      </c>
       <c r="E193" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F193" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G193" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>586</v>
+        <v>280</v>
       </c>
       <c r="B194" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C194" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D194" t="s">
+        <v>476</v>
       </c>
       <c r="E194" t="s">
         <v>618</v>
       </c>
       <c r="F194" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G194" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>588</v>
+        <v>283</v>
       </c>
       <c r="B195" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C195" t="s">
-        <v>488</v>
+        <v>475</v>
+      </c>
+      <c r="D195" t="s">
+        <v>476</v>
       </c>
       <c r="E195" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F195" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G195" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="86" t="s">
-        <v>593</v>
-      </c>
-      <c r="B196" s="86" t="s">
-        <v>471</v>
-      </c>
-      <c r="C196" s="86" t="s">
-        <v>480</v>
-      </c>
-      <c r="D196" s="86"/>
-      <c r="E196" s="86" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>286</v>
+      </c>
+      <c r="B196" t="s">
+        <v>462</v>
+      </c>
+      <c r="C196" t="s">
+        <v>475</v>
+      </c>
+      <c r="D196" t="s">
+        <v>476</v>
+      </c>
+      <c r="E196" t="s">
         <v>609</v>
       </c>
-      <c r="F196" s="86" t="s">
-        <v>632</v>
+      <c r="F196" t="s">
+        <v>633</v>
       </c>
       <c r="G196" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>595</v>
+        <v>289</v>
       </c>
       <c r="B197" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C197" t="s">
         <v>475</v>
       </c>
+      <c r="D197" t="s">
+        <v>476</v>
+      </c>
       <c r="E197" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="F197" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G197" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>596</v>
+        <v>290</v>
       </c>
       <c r="B198" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="C198" t="s">
-        <v>486</v>
+        <v>475</v>
+      </c>
+      <c r="D198" t="s">
+        <v>481</v>
       </c>
       <c r="E198" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="F198" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G198" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>598</v>
+        <v>293</v>
       </c>
       <c r="B199" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C199" t="s">
-        <v>488</v>
+        <v>475</v>
+      </c>
+      <c r="D199" t="s">
+        <v>481</v>
       </c>
       <c r="E199" t="s">
         <v>609</v>
       </c>
       <c r="F199" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G199" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>622</v>
+        <v>296</v>
       </c>
       <c r="B200" t="s">
-        <v>629</v>
+        <v>463</v>
       </c>
       <c r="C200" t="s">
-        <v>630</v>
+        <v>475</v>
+      </c>
+      <c r="D200" t="s">
+        <v>482</v>
+      </c>
+      <c r="E200" t="s">
+        <v>617</v>
       </c>
       <c r="F200" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="G200" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>623</v>
+        <v>298</v>
       </c>
       <c r="B201" t="s">
-        <v>629</v>
+        <v>438</v>
       </c>
       <c r="C201" t="s">
-        <v>631</v>
+        <v>475</v>
+      </c>
+      <c r="D201" t="s">
+        <v>482</v>
+      </c>
+      <c r="E201" t="s">
+        <v>618</v>
       </c>
       <c r="F201" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="G201" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>624</v>
+        <v>300</v>
       </c>
       <c r="B202" t="s">
-        <v>625</v>
+        <v>471</v>
+      </c>
+      <c r="C202" t="s">
+        <v>486</v>
+      </c>
+      <c r="D202" t="s">
+        <v>481</v>
+      </c>
+      <c r="E202" t="s">
+        <v>618</v>
       </c>
       <c r="F202" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+        <v>633</v>
+      </c>
+      <c r="G202" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>626</v>
+        <v>302</v>
       </c>
       <c r="B203" t="s">
-        <v>629</v>
+        <v>463</v>
       </c>
       <c r="C203" t="s">
-        <v>630</v>
+        <v>486</v>
+      </c>
+      <c r="D203" t="s">
+        <v>481</v>
+      </c>
+      <c r="E203" t="s">
+        <v>618</v>
       </c>
       <c r="F203" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>627</v>
-      </c>
-      <c r="B204" t="s">
-        <v>629</v>
-      </c>
-      <c r="C204" t="s">
-        <v>631</v>
-      </c>
-      <c r="F204" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>628</v>
-      </c>
-      <c r="B205" t="s">
-        <v>625</v>
-      </c>
-      <c r="F205" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>590</v>
-      </c>
-      <c r="B206" t="s">
-        <v>629</v>
-      </c>
-      <c r="C206" t="s">
-        <v>630</v>
-      </c>
-      <c r="F206" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>600</v>
-      </c>
-      <c r="B207" t="s">
-        <v>625</v>
-      </c>
-      <c r="F207" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>603</v>
-      </c>
-      <c r="B208" t="s">
-        <v>629</v>
-      </c>
-      <c r="C208" t="s">
-        <v>631</v>
-      </c>
-      <c r="F208" t="s">
-        <v>617</v>
+        <v>633</v>
+      </c>
+      <c r="G203" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G208" xr:uid="{D5D11784-2D0A-1147-8C51-02CCF0636E63}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="H18"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Rumen"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Holstein"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:G203" xr:uid="{D5D11784-2D0A-1147-8C51-02CCF0636E63}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G203">
+      <sortCondition ref="A1:A203"/>
+    </sortState>
   </autoFilter>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -14677,10 +14595,10 @@
         <v>514</v>
       </c>
       <c r="D1" t="s">
+        <v>642</v>
+      </c>
+      <c r="E1" t="s">
         <v>643</v>
-      </c>
-      <c r="E1" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
@@ -20367,8 +20285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317A2F16-EF01-4C76-8FBF-516642DA53E6}">
   <dimension ref="A1:R166"/>
   <sheetViews>
-    <sheetView topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28115,7 +28033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A433DD26-02A1-49E3-8D43-A10C1495DE57}">
   <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A122" workbookViewId="0">
       <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
@@ -32925,8 +32843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15A283DC-4728-4A91-8783-D97711B104A9}">
   <dimension ref="A1:L135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -37181,7 +37099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3341ECF2-F1EC-9E4A-999A-29231663FC6A}">
   <dimension ref="A1:AJ207"/>
   <sheetViews>
-    <sheetView topLeftCell="V18" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AJ53" sqref="AE21:AJ53"/>
     </sheetView>
   </sheetViews>
@@ -37240,12 +37158,12 @@
       <c r="T1" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="X1" s="114" t="s">
-        <v>646</v>
-      </c>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
+      <c r="X1" s="113" t="s">
+        <v>645</v>
+      </c>
+      <c r="Y1" s="113"/>
+      <c r="Z1" s="113"/>
+      <c r="AA1" s="113"/>
     </row>
     <row r="2" spans="1:34" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -37296,17 +37214,17 @@
       <c r="T2" s="62" t="s">
         <v>618</v>
       </c>
-      <c r="W2" s="91"/>
-      <c r="X2" s="92">
+      <c r="W2" s="90"/>
+      <c r="X2" s="91">
         <v>1</v>
       </c>
-      <c r="Y2" s="93">
+      <c r="Y2" s="92">
         <v>2</v>
       </c>
-      <c r="Z2" s="93">
+      <c r="Z2" s="92">
         <v>3</v>
       </c>
-      <c r="AA2" s="94">
+      <c r="AA2" s="93">
         <v>4</v>
       </c>
     </row>
@@ -37359,19 +37277,19 @@
       <c r="T3" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="W3" s="88" t="s">
+      <c r="W3" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="X3" s="95" t="s">
+      <c r="X3" s="94" t="s">
         <v>617</v>
       </c>
-      <c r="Y3" s="96" t="s">
+      <c r="Y3" s="95" t="s">
         <v>618</v>
       </c>
-      <c r="Z3" s="96" t="s">
+      <c r="Z3" s="95" t="s">
         <v>616</v>
       </c>
-      <c r="AA3" s="97" t="s">
+      <c r="AA3" s="96" t="s">
         <v>609</v>
       </c>
     </row>
@@ -37424,19 +37342,19 @@
       <c r="T4" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="W4" s="89" t="s">
+      <c r="W4" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="X4" s="98" t="s">
+      <c r="X4" s="97" t="s">
         <v>618</v>
       </c>
-      <c r="Y4" s="87" t="s">
+      <c r="Y4" s="86" t="s">
         <v>616</v>
       </c>
-      <c r="Z4" s="87" t="s">
+      <c r="Z4" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="AA4" s="99" t="s">
+      <c r="AA4" s="98" t="s">
         <v>617</v>
       </c>
     </row>
@@ -37489,19 +37407,19 @@
       <c r="T5" s="63" t="s">
         <v>618</v>
       </c>
-      <c r="W5" s="89" t="s">
+      <c r="W5" s="88" t="s">
         <v>462</v>
       </c>
-      <c r="X5" s="98" t="s">
+      <c r="X5" s="97" t="s">
         <v>616</v>
       </c>
-      <c r="Y5" s="87" t="s">
+      <c r="Y5" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="Z5" s="87" t="s">
+      <c r="Z5" s="86" t="s">
         <v>617</v>
       </c>
-      <c r="AA5" s="99" t="s">
+      <c r="AA5" s="98" t="s">
         <v>618</v>
       </c>
     </row>
@@ -37554,19 +37472,19 @@
       <c r="T6" s="66" t="s">
         <v>618</v>
       </c>
-      <c r="W6" s="89" t="s">
+      <c r="W6" s="88" t="s">
         <v>463</v>
       </c>
-      <c r="X6" s="98" t="s">
+      <c r="X6" s="97" t="s">
         <v>609</v>
       </c>
-      <c r="Y6" s="87" t="s">
+      <c r="Y6" s="86" t="s">
         <v>617</v>
       </c>
-      <c r="Z6" s="87" t="s">
+      <c r="Z6" s="86" t="s">
         <v>618</v>
       </c>
-      <c r="AA6" s="99" t="s">
+      <c r="AA6" s="98" t="s">
         <v>616</v>
       </c>
     </row>
@@ -37619,19 +37537,19 @@
       <c r="T7" s="63" t="s">
         <v>616</v>
       </c>
-      <c r="W7" s="89" t="s">
+      <c r="W7" s="88" t="s">
         <v>465</v>
       </c>
-      <c r="X7" s="98" t="s">
+      <c r="X7" s="97" t="s">
         <v>616</v>
       </c>
-      <c r="Y7" s="87" t="s">
+      <c r="Y7" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="Z7" s="87" t="s">
+      <c r="Z7" s="86" t="s">
         <v>617</v>
       </c>
-      <c r="AA7" s="99" t="s">
+      <c r="AA7" s="98" t="s">
         <v>618</v>
       </c>
     </row>
@@ -37684,19 +37602,19 @@
       <c r="T8" s="63" t="s">
         <v>616</v>
       </c>
-      <c r="W8" s="89" t="s">
+      <c r="W8" s="88" t="s">
         <v>468</v>
       </c>
-      <c r="X8" s="98" t="s">
+      <c r="X8" s="97" t="s">
         <v>617</v>
       </c>
-      <c r="Y8" s="87" t="s">
+      <c r="Y8" s="86" t="s">
         <v>618</v>
       </c>
-      <c r="Z8" s="87" t="s">
+      <c r="Z8" s="86" t="s">
         <v>616</v>
       </c>
-      <c r="AA8" s="99" t="s">
+      <c r="AA8" s="98" t="s">
         <v>609</v>
       </c>
     </row>
@@ -37749,19 +37667,19 @@
       <c r="T9" s="63" t="s">
         <v>616</v>
       </c>
-      <c r="W9" s="89" t="s">
+      <c r="W9" s="88" t="s">
         <v>469</v>
       </c>
-      <c r="X9" s="98" t="s">
+      <c r="X9" s="97" t="s">
         <v>618</v>
       </c>
-      <c r="Y9" s="87" t="s">
+      <c r="Y9" s="86" t="s">
         <v>616</v>
       </c>
-      <c r="Z9" s="87" t="s">
+      <c r="Z9" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="AA9" s="99" t="s">
+      <c r="AA9" s="98" t="s">
         <v>617</v>
       </c>
     </row>
@@ -37814,19 +37732,19 @@
       <c r="T10" s="63" t="s">
         <v>616</v>
       </c>
-      <c r="W10" s="90" t="s">
+      <c r="W10" s="89" t="s">
         <v>471</v>
       </c>
-      <c r="X10" s="100" t="s">
+      <c r="X10" s="99" t="s">
         <v>609</v>
       </c>
-      <c r="Y10" s="101" t="s">
+      <c r="Y10" s="100" t="s">
         <v>617</v>
       </c>
-      <c r="Z10" s="101" t="s">
+      <c r="Z10" s="100" t="s">
         <v>618</v>
       </c>
-      <c r="AA10" s="102" t="s">
+      <c r="AA10" s="101" t="s">
         <v>616</v>
       </c>
     </row>
@@ -37929,32 +37847,32 @@
       <c r="T12" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="W12" s="91"/>
-      <c r="X12" s="92">
+      <c r="W12" s="90"/>
+      <c r="X12" s="91">
         <v>1</v>
       </c>
-      <c r="Y12" s="93">
+      <c r="Y12" s="92">
         <v>2</v>
       </c>
-      <c r="Z12" s="93">
+      <c r="Z12" s="92">
         <v>3</v>
       </c>
-      <c r="AA12" s="94">
+      <c r="AA12" s="93">
         <v>4</v>
       </c>
-      <c r="AB12" s="103" t="s">
-        <v>645</v>
-      </c>
-      <c r="AE12" s="92">
+      <c r="AB12" s="102" t="s">
+        <v>644</v>
+      </c>
+      <c r="AE12" s="91">
         <v>1</v>
       </c>
-      <c r="AF12" s="93">
+      <c r="AF12" s="92">
         <v>2</v>
       </c>
-      <c r="AG12" s="93">
+      <c r="AG12" s="92">
         <v>3</v>
       </c>
-      <c r="AH12" s="94">
+      <c r="AH12" s="93">
         <v>4</v>
       </c>
     </row>
@@ -38007,20 +37925,20 @@
       <c r="T13" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="W13" s="88" t="s">
+      <c r="W13" s="87" t="s">
         <v>438</v>
       </c>
-      <c r="X13" s="95" t="s">
+      <c r="X13" s="94" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y13" s="95" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z13" s="95" t="s">
         <v>639</v>
       </c>
-      <c r="Y13" s="96" t="s">
+      <c r="AA13" s="96" t="s">
         <v>641</v>
-      </c>
-      <c r="Z13" s="96" t="s">
-        <v>640</v>
-      </c>
-      <c r="AA13" s="97" t="s">
-        <v>642</v>
       </c>
       <c r="AB13">
         <v>1</v>
@@ -38028,17 +37946,17 @@
       <c r="AD13">
         <v>1</v>
       </c>
-      <c r="AE13" s="95" t="s">
+      <c r="AE13" s="94" t="s">
+        <v>638</v>
+      </c>
+      <c r="AF13" s="95" t="s">
+        <v>640</v>
+      </c>
+      <c r="AG13" s="95" t="s">
         <v>639</v>
       </c>
-      <c r="AF13" s="96" t="s">
+      <c r="AH13" s="96" t="s">
         <v>641</v>
-      </c>
-      <c r="AG13" s="96" t="s">
-        <v>640</v>
-      </c>
-      <c r="AH13" s="97" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.2">
@@ -38090,20 +38008,20 @@
       <c r="T14" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="W14" s="89" t="s">
+      <c r="W14" s="88" t="s">
         <v>458</v>
       </c>
-      <c r="X14" s="98" t="s">
+      <c r="X14" s="97" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y14" s="86" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z14" s="86" t="s">
         <v>641</v>
       </c>
-      <c r="Y14" s="87" t="s">
-        <v>640</v>
-      </c>
-      <c r="Z14" s="87" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA14" s="99" t="s">
-        <v>639</v>
+      <c r="AA14" s="98" t="s">
+        <v>638</v>
       </c>
       <c r="AB14">
         <v>2</v>
@@ -38111,17 +38029,17 @@
       <c r="AD14">
         <v>2</v>
       </c>
-      <c r="AE14" s="98" t="s">
+      <c r="AE14" s="97" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF14" s="86" t="s">
+        <v>639</v>
+      </c>
+      <c r="AG14" s="86" t="s">
         <v>641</v>
       </c>
-      <c r="AF14" s="87" t="s">
-        <v>640</v>
-      </c>
-      <c r="AG14" s="87" t="s">
-        <v>642</v>
-      </c>
-      <c r="AH14" s="99" t="s">
-        <v>639</v>
+      <c r="AH14" s="98" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.2">
@@ -38173,20 +38091,20 @@
       <c r="T15" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="W15" s="89" t="s">
+      <c r="W15" s="88" t="s">
         <v>462</v>
       </c>
-      <c r="X15" s="98" t="s">
+      <c r="X15" s="97" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y15" s="86" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z15" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA15" s="98" t="s">
         <v>640</v>
-      </c>
-      <c r="Y15" s="87" t="s">
-        <v>642</v>
-      </c>
-      <c r="Z15" s="87" t="s">
-        <v>639</v>
-      </c>
-      <c r="AA15" s="99" t="s">
-        <v>641</v>
       </c>
       <c r="AB15">
         <v>3</v>
@@ -38194,17 +38112,17 @@
       <c r="AD15">
         <v>3</v>
       </c>
-      <c r="AE15" s="98" t="s">
+      <c r="AE15" s="97" t="s">
+        <v>639</v>
+      </c>
+      <c r="AF15" s="86" t="s">
+        <v>641</v>
+      </c>
+      <c r="AG15" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="AH15" s="98" t="s">
         <v>640</v>
-      </c>
-      <c r="AF15" s="87" t="s">
-        <v>642</v>
-      </c>
-      <c r="AG15" s="87" t="s">
-        <v>639</v>
-      </c>
-      <c r="AH15" s="99" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.2">
@@ -38256,20 +38174,20 @@
       <c r="T16" s="67" t="s">
         <v>609</v>
       </c>
-      <c r="W16" s="89" t="s">
+      <c r="W16" s="88" t="s">
         <v>463</v>
       </c>
-      <c r="X16" s="98" t="s">
-        <v>642</v>
-      </c>
-      <c r="Y16" s="87" t="s">
+      <c r="X16" s="97" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y16" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z16" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA16" s="98" t="s">
         <v>639</v>
-      </c>
-      <c r="Z16" s="87" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA16" s="99" t="s">
-        <v>640</v>
       </c>
       <c r="AB16">
         <v>4</v>
@@ -38277,17 +38195,17 @@
       <c r="AD16">
         <v>4</v>
       </c>
-      <c r="AE16" s="98" t="s">
-        <v>642</v>
-      </c>
-      <c r="AF16" s="87" t="s">
+      <c r="AE16" s="97" t="s">
+        <v>641</v>
+      </c>
+      <c r="AF16" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="AG16" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="AH16" s="98" t="s">
         <v>639</v>
-      </c>
-      <c r="AG16" s="87" t="s">
-        <v>641</v>
-      </c>
-      <c r="AH16" s="99" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.2">
@@ -38339,20 +38257,20 @@
       <c r="T17" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="W17" s="105" t="s">
+      <c r="W17" s="104" t="s">
         <v>465</v>
       </c>
-      <c r="X17" s="106" t="s">
+      <c r="X17" s="105" t="s">
+        <v>639</v>
+      </c>
+      <c r="Y17" s="106" t="s">
+        <v>641</v>
+      </c>
+      <c r="Z17" s="106" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA17" s="107" t="s">
         <v>640</v>
-      </c>
-      <c r="Y17" s="107" t="s">
-        <v>642</v>
-      </c>
-      <c r="Z17" s="107" t="s">
-        <v>639</v>
-      </c>
-      <c r="AA17" s="108" t="s">
-        <v>641</v>
       </c>
       <c r="AB17">
         <v>3</v>
@@ -38407,20 +38325,20 @@
       <c r="T18" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="W18" s="105" t="s">
+      <c r="W18" s="104" t="s">
         <v>468</v>
       </c>
-      <c r="X18" s="106" t="s">
+      <c r="X18" s="105" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y18" s="106" t="s">
+        <v>640</v>
+      </c>
+      <c r="Z18" s="106" t="s">
         <v>639</v>
       </c>
-      <c r="Y18" s="107" t="s">
+      <c r="AA18" s="107" t="s">
         <v>641</v>
-      </c>
-      <c r="Z18" s="107" t="s">
-        <v>640</v>
-      </c>
-      <c r="AA18" s="108" t="s">
-        <v>642</v>
       </c>
       <c r="AB18">
         <v>1</v>
@@ -38475,20 +38393,20 @@
       <c r="T19" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="W19" s="105" t="s">
+      <c r="W19" s="104" t="s">
         <v>469</v>
       </c>
-      <c r="X19" s="106" t="s">
+      <c r="X19" s="105" t="s">
+        <v>640</v>
+      </c>
+      <c r="Y19" s="106" t="s">
+        <v>639</v>
+      </c>
+      <c r="Z19" s="106" t="s">
         <v>641</v>
       </c>
-      <c r="Y19" s="107" t="s">
-        <v>640</v>
-      </c>
-      <c r="Z19" s="107" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA19" s="108" t="s">
-        <v>639</v>
+      <c r="AA19" s="107" t="s">
+        <v>638</v>
       </c>
       <c r="AB19">
         <v>2</v>
@@ -38543,20 +38461,20 @@
       <c r="T20" s="63" t="s">
         <v>617</v>
       </c>
-      <c r="W20" s="109" t="s">
+      <c r="W20" s="108" t="s">
         <v>471</v>
       </c>
-      <c r="X20" s="110" t="s">
-        <v>642</v>
-      </c>
-      <c r="Y20" s="111" t="s">
+      <c r="X20" s="109" t="s">
+        <v>641</v>
+      </c>
+      <c r="Y20" s="110" t="s">
+        <v>638</v>
+      </c>
+      <c r="Z20" s="110" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA20" s="111" t="s">
         <v>639</v>
-      </c>
-      <c r="Z20" s="111" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA20" s="112" t="s">
-        <v>640</v>
       </c>
       <c r="AB20">
         <v>4</v>
@@ -38618,16 +38536,16 @@
         <v>514</v>
       </c>
       <c r="AG21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH21" t="s">
         <v>608</v>
       </c>
       <c r="AI21" t="s">
+        <v>642</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>643</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.2">
@@ -38649,12 +38567,12 @@
       <c r="F22" t="s">
         <v>618</v>
       </c>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="104" t="s">
+      <c r="AA22" s="86"/>
+      <c r="AB22" s="103" t="s">
+        <v>642</v>
+      </c>
+      <c r="AC22" s="103" t="s">
         <v>643</v>
-      </c>
-      <c r="AC22" s="104" t="s">
-        <v>644</v>
       </c>
       <c r="AE22" t="s">
         <v>438</v>
@@ -38666,7 +38584,7 @@
         <v>1</v>
       </c>
       <c r="AH22" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI22">
         <v>0</v>
@@ -38724,22 +38642,22 @@
       <c r="T23" s="51" t="s">
         <v>608</v>
       </c>
-      <c r="W23" s="87" t="s">
+      <c r="W23" s="86" t="s">
         <v>617</v>
       </c>
-      <c r="X23" s="87">
+      <c r="X23" s="86">
         <v>0</v>
       </c>
-      <c r="Y23" s="87" t="s">
-        <v>639</v>
-      </c>
-      <c r="AA23" s="104" t="s">
-        <v>639</v>
-      </c>
-      <c r="AB23" s="87">
+      <c r="Y23" s="86" t="s">
+        <v>638</v>
+      </c>
+      <c r="AA23" s="103" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB23" s="86">
         <v>1</v>
       </c>
-      <c r="AC23" s="87">
+      <c r="AC23" s="86">
         <v>0</v>
       </c>
       <c r="AE23" t="s">
@@ -38752,7 +38670,7 @@
         <v>1</v>
       </c>
       <c r="AH23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI23">
         <v>1</v>
@@ -38810,22 +38728,22 @@
       <c r="T24" s="62" t="s">
         <v>609</v>
       </c>
-      <c r="W24" s="87" t="s">
+      <c r="W24" s="86" t="s">
         <v>616</v>
       </c>
-      <c r="X24" s="87">
+      <c r="X24" s="86">
         <v>1</v>
       </c>
-      <c r="Y24" s="87" t="s">
-        <v>640</v>
-      </c>
-      <c r="AA24" s="104" t="s">
-        <v>640</v>
-      </c>
-      <c r="AB24" s="87">
+      <c r="Y24" s="86" t="s">
+        <v>639</v>
+      </c>
+      <c r="AA24" s="103" t="s">
+        <v>639</v>
+      </c>
+      <c r="AB24" s="86">
         <v>0</v>
       </c>
-      <c r="AC24" s="87">
+      <c r="AC24" s="86">
         <v>1</v>
       </c>
       <c r="AE24" t="s">
@@ -38838,7 +38756,7 @@
         <v>1</v>
       </c>
       <c r="AH24" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI24">
         <v>-1</v>
@@ -38896,22 +38814,22 @@
       <c r="T25" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="W25" s="87" t="s">
+      <c r="W25" s="86" t="s">
         <v>618</v>
       </c>
-      <c r="X25" s="87">
+      <c r="X25" s="86">
         <v>2</v>
       </c>
-      <c r="Y25" s="87" t="s">
-        <v>641</v>
-      </c>
-      <c r="AA25" s="104" t="s">
-        <v>641</v>
-      </c>
-      <c r="AB25" s="87">
+      <c r="Y25" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="AA25" s="103" t="s">
+        <v>640</v>
+      </c>
+      <c r="AB25" s="86">
         <v>-1</v>
       </c>
-      <c r="AC25" s="87">
+      <c r="AC25" s="86">
         <v>0</v>
       </c>
       <c r="AE25" t="s">
@@ -38924,7 +38842,7 @@
         <v>1</v>
       </c>
       <c r="AH25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI25">
         <v>0</v>
@@ -38982,22 +38900,22 @@
       <c r="T26" s="63" t="s">
         <v>609</v>
       </c>
-      <c r="W26" s="87" t="s">
+      <c r="W26" s="86" t="s">
         <v>609</v>
       </c>
-      <c r="X26" s="87">
+      <c r="X26" s="86">
         <v>3</v>
       </c>
-      <c r="Y26" s="87" t="s">
-        <v>642</v>
-      </c>
-      <c r="AA26" s="104" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB26" s="87">
+      <c r="Y26" s="86" t="s">
+        <v>641</v>
+      </c>
+      <c r="AA26" s="103" t="s">
+        <v>641</v>
+      </c>
+      <c r="AB26" s="86">
         <v>0</v>
       </c>
-      <c r="AC26" s="87">
+      <c r="AC26" s="86">
         <v>-1</v>
       </c>
       <c r="AE26" t="s">
@@ -39010,7 +38928,7 @@
         <v>2</v>
       </c>
       <c r="AH26" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI26">
         <v>0</v>
@@ -39079,7 +38997,7 @@
         <v>2</v>
       </c>
       <c r="AH27" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI27">
         <v>-1</v>
@@ -39147,7 +39065,7 @@
         <v>2</v>
       </c>
       <c r="AH28" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI28">
         <v>0</v>
@@ -39215,7 +39133,7 @@
         <v>2</v>
       </c>
       <c r="AH29" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI29">
         <v>0</v>
@@ -39283,7 +39201,7 @@
         <v>3</v>
       </c>
       <c r="AH30" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI30">
         <v>0</v>
@@ -39351,7 +39269,7 @@
         <v>3</v>
       </c>
       <c r="AH31" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI31">
         <v>0</v>
@@ -39419,7 +39337,7 @@
         <v>3</v>
       </c>
       <c r="AH32" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI32">
         <v>0</v>
@@ -39487,7 +39405,7 @@
         <v>3</v>
       </c>
       <c r="AH33" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI33">
         <v>1</v>
@@ -39555,7 +39473,7 @@
         <v>4</v>
       </c>
       <c r="AH34" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -39623,7 +39541,7 @@
         <v>4</v>
       </c>
       <c r="AH35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI35">
         <v>0</v>
@@ -39691,7 +39609,7 @@
         <v>4</v>
       </c>
       <c r="AH36" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI36">
         <v>1</v>
@@ -39759,7 +39677,7 @@
         <v>4</v>
       </c>
       <c r="AH37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI37">
         <v>-1</v>
@@ -39827,7 +39745,7 @@
         <v>3</v>
       </c>
       <c r="AH38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI38">
         <v>0</v>
@@ -39895,7 +39813,7 @@
         <v>3</v>
       </c>
       <c r="AH39" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI39">
         <v>0</v>
@@ -39963,7 +39881,7 @@
         <v>3</v>
       </c>
       <c r="AH40" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI40">
         <v>0</v>
@@ -40031,7 +39949,7 @@
         <v>3</v>
       </c>
       <c r="AH41" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI41">
         <v>1</v>
@@ -40099,7 +40017,7 @@
         <v>1</v>
       </c>
       <c r="AH42" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI42">
         <v>0</v>
@@ -40167,7 +40085,7 @@
         <v>1</v>
       </c>
       <c r="AH43" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI43">
         <v>1</v>
@@ -40205,7 +40123,7 @@
         <v>1</v>
       </c>
       <c r="AH44" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI44">
         <v>-1</v>
@@ -40273,7 +40191,7 @@
         <v>1</v>
       </c>
       <c r="AH45" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI45">
         <v>0</v>
@@ -40341,7 +40259,7 @@
         <v>2</v>
       </c>
       <c r="AH46" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI46">
         <v>0</v>
@@ -40409,7 +40327,7 @@
         <v>2</v>
       </c>
       <c r="AH47" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI47">
         <v>-1</v>
@@ -40477,7 +40395,7 @@
         <v>2</v>
       </c>
       <c r="AH48" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI48">
         <v>0</v>
@@ -40545,7 +40463,7 @@
         <v>2</v>
       </c>
       <c r="AH49" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -40613,7 +40531,7 @@
         <v>4</v>
       </c>
       <c r="AH50" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -40672,7 +40590,7 @@
         <v>618</v>
       </c>
       <c r="AE51" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF51">
         <v>2</v>
@@ -40681,7 +40599,7 @@
         <v>4</v>
       </c>
       <c r="AH51" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AI51">
         <v>0</v>
@@ -40740,7 +40658,7 @@
         <v>618</v>
       </c>
       <c r="AE52" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="AF52">
         <v>3</v>
@@ -40749,7 +40667,7 @@
         <v>4</v>
       </c>
       <c r="AH52" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AI52">
         <v>1</v>
@@ -40808,7 +40726,7 @@
         <v>618</v>
       </c>
       <c r="AE53" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="AF53">
         <v>4</v>
@@ -40817,7 +40735,7 @@
         <v>4</v>
       </c>
       <c r="AH53" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AI53">
         <v>-1</v>
